--- a/Administrativo/Costos.xlsx
+++ b/Administrativo/Costos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jhonny\Documents\TEC\Semestre IX\Lab Estructuras Microprocesadores\PROYECTO CATIE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan\Desktop\FenixWS-master\Administrativo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Financiamiento" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
   <si>
     <t>Depósito CATIE</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>Voltage Sensor</t>
+  </si>
+  <si>
+    <t>Hola</t>
   </si>
 </sst>
 </file>
@@ -385,6 +388,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -397,7 +401,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,10 +681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +695,7 @@
     <col min="4" max="4" width="50.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -706,7 +709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -718,7 +721,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -730,7 +733,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -744,7 +747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -758,7 +761,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -772,7 +775,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -786,7 +789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -800,7 +803,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -815,7 +818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -827,7 +830,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>57</v>
       </c>
@@ -841,7 +844,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>59</v>
       </c>
@@ -852,14 +855,17 @@
         <v>42140</v>
       </c>
       <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>18</v>
       </c>
@@ -869,7 +875,7 @@
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>19</v>
       </c>
@@ -879,7 +885,7 @@
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>20</v>
       </c>
@@ -1010,12 +1016,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="16" t="s">
         <v>35</v>
       </c>
@@ -1024,11 +1030,11 @@
       <c r="A2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="19" t="s">
         <v>36</v>
       </c>
@@ -1037,11 +1043,11 @@
       <c r="A3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="15" t="s">
         <v>36</v>
       </c>
@@ -1050,11 +1056,11 @@
       <c r="A4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="15" t="s">
         <v>36</v>
       </c>
@@ -1063,11 +1069,11 @@
       <c r="A5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="15" t="s">
         <v>36</v>
       </c>
@@ -1076,44 +1082,44 @@
       <c r="A6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
       <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
       <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
       <c r="E9" s="15"/>
     </row>
   </sheetData>
@@ -1152,62 +1158,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="H1" s="23" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="H1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H2" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H4" s="23" t="s">
+      <c r="H4" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Administrativo/Costos.xlsx
+++ b/Administrativo/Costos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Financiamiento" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>Depósito CATIE</t>
   </si>
@@ -206,16 +206,13 @@
   </si>
   <si>
     <t>Voltage Sensor</t>
-  </si>
-  <si>
-    <t>Hola</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -268,6 +265,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -331,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -389,6 +394,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -681,7 +687,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
@@ -695,7 +701,7 @@
     <col min="4" max="4" width="50.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -709,7 +715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,7 +727,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -733,7 +739,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -747,7 +753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -761,7 +767,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -775,7 +781,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -789,7 +795,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -803,7 +809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -818,7 +824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -830,7 +836,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>57</v>
       </c>
@@ -844,7 +850,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>59</v>
       </c>
@@ -855,17 +861,14 @@
         <v>42140</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="G12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
       <c r="D13" s="17"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>18</v>
       </c>
@@ -875,7 +878,7 @@
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>19</v>
       </c>
@@ -885,7 +888,7 @@
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>20</v>
       </c>
@@ -895,7 +898,7 @@
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>21</v>
       </c>
@@ -905,7 +908,7 @@
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>22</v>
       </c>
@@ -915,8 +918,9 @@
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F18" s="21"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>23</v>
       </c>
@@ -927,19 +931,19 @@
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -950,7 +954,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>12</v>
       </c>
@@ -961,7 +965,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>13</v>
       </c>
@@ -972,7 +976,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -980,7 +984,7 @@
         <v>229318</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -989,7 +993,7 @@
         <v>146258.51999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B29" s="14">
         <f>B27-B28</f>
         <v>83059.48000000001</v>
@@ -1016,12 +1020,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="16" t="s">
         <v>35</v>
       </c>
@@ -1030,11 +1034,11 @@
       <c r="A2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="19" t="s">
         <v>36</v>
       </c>
@@ -1043,11 +1047,11 @@
       <c r="A3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="15" t="s">
         <v>36</v>
       </c>
@@ -1056,11 +1060,11 @@
       <c r="A4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="15" t="s">
         <v>36</v>
       </c>
@@ -1069,11 +1073,11 @@
       <c r="A5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="15" t="s">
         <v>36</v>
       </c>
@@ -1082,44 +1086,44 @@
       <c r="A6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="15"/>
     </row>
   </sheetData>
@@ -1158,20 +1162,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="H1" s="24" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="H1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -1192,28 +1196,28 @@
       <c r="F2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Administrativo/Costos.xlsx
+++ b/Administrativo/Costos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juan\Desktop\FenixWS-master\Administrativo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\ProyectoCATIE\FenixWS-master\Administrativo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>Depósito CATIE</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>Hola</t>
+  </si>
+  <si>
+    <t>RCV420</t>
+  </si>
+  <si>
+    <t>Conversor 420 mA to 0.5V /comprado en Ebay sin costo de envío</t>
   </si>
 </sst>
 </file>
@@ -331,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -389,6 +395,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -681,10 +690,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +701,7 @@
     <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="50.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="58.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -860,34 +869,38 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
+      <c r="A13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="9">
+        <v>7515</v>
+      </c>
+      <c r="C13" s="4">
+        <v>42140</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="13">
-        <v>120000</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="13">
-        <v>20000</v>
+        <v>120000</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="13">
         <v>20000</v>
@@ -897,41 +910,45 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="13">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="13">
-        <f>B15+B16+B17</f>
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="13">
-        <f>B14-B18</f>
-        <v>40000</v>
+        <f>B16+B17+B18</f>
+        <v>80000</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="A20" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="13">
+        <f>B15-B19</f>
+        <v>40000</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
@@ -940,58 +957,64 @@
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B23" s="7">
         <f>B4+B5+B6+B7+B9</f>
         <v>133741.48000000001</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="9">
-        <f>B3-B22</f>
-        <v>66258.51999999999</v>
-      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="11">
-        <f>B2-B22-B8-B10-B11-B12</f>
-        <v>451927.52</v>
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="9">
+        <f>B3-B23</f>
+        <v>66258.51999999999</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>229318</v>
-      </c>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="11">
+        <f>B2-B23-B8-B10-B11-B12-B13</f>
+        <v>444412.52</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>229318</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="14">
-        <f>B18+B23</f>
+      <c r="B29" s="14">
+        <f>B19+B24</f>
         <v>146258.51999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="14">
-        <f>B27-B28</f>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="14">
+        <f>B28-B29</f>
         <v>83059.48000000001</v>
       </c>
     </row>
@@ -1016,12 +1039,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
       <c r="E1" s="16" t="s">
         <v>35</v>
       </c>
@@ -1030,11 +1053,11 @@
       <c r="A2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
       <c r="E2" s="19" t="s">
         <v>36</v>
       </c>
@@ -1043,11 +1066,11 @@
       <c r="A3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
       <c r="E3" s="15" t="s">
         <v>36</v>
       </c>
@@ -1056,11 +1079,11 @@
       <c r="A4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
       <c r="E4" s="15" t="s">
         <v>36</v>
       </c>
@@ -1069,11 +1092,11 @@
       <c r="A5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="15" t="s">
         <v>36</v>
       </c>
@@ -1082,44 +1105,44 @@
       <c r="A6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
       <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
       <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
       <c r="E9" s="15"/>
     </row>
   </sheetData>
@@ -1158,20 +1181,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="H1" s="24" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="H1" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -1192,28 +1215,28 @@
       <c r="F2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="25" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H4" s="24" t="s">
+      <c r="H4" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Administrativo/Costos.xlsx
+++ b/Administrativo/Costos.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>Depósito CATIE</t>
   </si>
@@ -215,6 +215,12 @@
   </si>
   <si>
     <t>Conversor 420 mA to 0.5V /comprado en Ebay sin costo de envío</t>
+  </si>
+  <si>
+    <t>envío sensores</t>
+  </si>
+  <si>
+    <t>costo de envío de sensor de viento, temp, humedad y ss461c</t>
   </si>
 </sst>
 </file>
@@ -337,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -395,6 +401,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -883,34 +892,38 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
+      <c r="A14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="9">
+        <v>27000</v>
+      </c>
+      <c r="C14" s="4">
+        <v>42143</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="13">
-        <v>120000</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16" s="13">
-        <v>20000</v>
+        <v>120000</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="13">
         <v>20000</v>
@@ -920,41 +933,45 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="13">
-        <v>40000</v>
+        <v>20000</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19" s="13">
-        <f>B16+B17+B18</f>
-        <v>80000</v>
+        <v>40000</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20" s="13">
-        <f>B15-B19</f>
-        <v>40000</v>
+        <f>B17+B18+B19</f>
+        <v>80000</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="A21" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="13">
+        <f>B16-B20</f>
+        <v>40000</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
@@ -963,58 +980,64 @@
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="7">
+      <c r="B24" s="7">
         <f>B4+B5+B6+B7+B9</f>
         <v>133741.48000000001</v>
       </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="9">
-        <f>B3-B23</f>
-        <v>66258.51999999999</v>
-      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="11">
-        <f>B2-B23-B8-B10-B11-B12-B13</f>
-        <v>444412.52</v>
+      <c r="A25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="9">
+        <f>B3-B24</f>
+        <v>66258.51999999999</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28">
-        <v>229318</v>
-      </c>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B26" s="11">
+        <f>B2-B24-B8-B10-B11-B12-B13-B14</f>
+        <v>417412.52</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>229318</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="14">
-        <f>B19+B24</f>
+      <c r="B30" s="14">
+        <f>B20+B25</f>
         <v>146258.51999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="14">
-        <f>B28-B29</f>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="14">
+        <f>B29-B30</f>
         <v>83059.48000000001</v>
       </c>
     </row>
@@ -1039,12 +1062,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
       <c r="E1" s="16" t="s">
         <v>35</v>
       </c>
@@ -1053,11 +1076,11 @@
       <c r="A2" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
       <c r="E2" s="19" t="s">
         <v>36</v>
       </c>
@@ -1066,11 +1089,11 @@
       <c r="A3" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="15" t="s">
         <v>36</v>
       </c>
@@ -1079,11 +1102,11 @@
       <c r="A4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="15" t="s">
         <v>36</v>
       </c>
@@ -1092,11 +1115,11 @@
       <c r="A5" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
       <c r="E5" s="15" t="s">
         <v>36</v>
       </c>
@@ -1105,44 +1128,44 @@
       <c r="A6" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
       <c r="E6" s="15"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
       <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
       <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
       <c r="E9" s="15"/>
     </row>
   </sheetData>
@@ -1181,20 +1204,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="H1" s="25" t="s">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="H1" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -1215,28 +1238,28 @@
       <c r="F2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Administrativo/Costos.xlsx
+++ b/Administrativo/Costos.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
   <si>
     <t>Depósito CATIE</t>
   </si>
@@ -82,33 +82,12 @@
     <t>Comprado por Internet en Ebay/ Sin costo de envío</t>
   </si>
   <si>
-    <t>DepósitoAparta</t>
-  </si>
-  <si>
-    <t>Pablo</t>
-  </si>
-  <si>
-    <t>Charlie</t>
-  </si>
-  <si>
-    <t>Josué</t>
-  </si>
-  <si>
-    <t>Total de depósito</t>
-  </si>
-  <si>
-    <t>DeudaDepósito</t>
-  </si>
-  <si>
     <t>TOTAL</t>
   </si>
   <si>
     <t>tengo</t>
   </si>
   <si>
-    <t>Compra por Internet en APOGEE, Inc/ Con envío</t>
-  </si>
-  <si>
     <t>Gastos Viajes</t>
   </si>
   <si>
@@ -221,6 +200,18 @@
   </si>
   <si>
     <t>costo de envío de sensor de viento, temp, humedad y ss461c</t>
+  </si>
+  <si>
+    <t>Compra por Internet en APOGEE, Inc/ Sin envío</t>
+  </si>
+  <si>
+    <t>envío sensor radiación</t>
+  </si>
+  <si>
+    <t>envío sensor de radiación solar</t>
+  </si>
+  <si>
+    <t>intrumentos</t>
   </si>
 </sst>
 </file>
@@ -702,12 +693,12 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.28515625" bestFit="1" customWidth="1"/>
@@ -818,7 +809,7 @@
         <v>42135</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -838,19 +829,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="B10" s="9">
         <v>15000</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B11" s="9">
         <v>7195</v>
@@ -859,12 +850,12 @@
         <v>42140</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B12" s="9">
         <v>3418</v>
@@ -874,12 +865,12 @@
       </c>
       <c r="D12" s="2"/>
       <c r="G12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B13" s="9">
         <v>7515</v>
@@ -888,12 +879,12 @@
         <v>42140</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B14" s="9">
         <v>27000</v>
@@ -902,74 +893,58 @@
         <v>42143</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="A15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="9">
+        <v>64000</v>
+      </c>
+      <c r="C15" s="4">
+        <v>42150</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="13">
-        <v>120000</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B16" s="13"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="13">
-        <v>20000</v>
-      </c>
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="13">
-        <v>20000</v>
-      </c>
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="13">
-        <v>40000</v>
-      </c>
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="13">
-        <f>B17+B18+B19</f>
-        <v>80000</v>
-      </c>
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="13">
-        <f>B16-B20</f>
-        <v>40000</v>
-      </c>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
     </row>
@@ -1012,15 +987,15 @@
         <v>13</v>
       </c>
       <c r="B26" s="11">
-        <f>B2-B24-B8-B10-B11-B12-B13-B14</f>
-        <v>417412.52</v>
+        <f>B2-B24-B8-B10-B11-B12-B13-B14-B15</f>
+        <v>353412.52</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B29">
         <v>229318</v>
@@ -1028,17 +1003,17 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B30" s="14">
         <f>B20+B25</f>
-        <v>146258.51999999999</v>
+        <v>66258.51999999999</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="14">
         <f>B29-B30</f>
-        <v>83059.48000000001</v>
+        <v>163059.48000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1063,73 +1038,73 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
       <c r="D1" s="25"/>
       <c r="E1" s="16" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
       <c r="E2" s="19" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B4" s="23" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
       <c r="E4" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="23"/>
       <c r="E5" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
@@ -1137,10 +1112,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
@@ -1148,10 +1123,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B8" s="23" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="23"/>
@@ -1159,10 +1134,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C9" s="23"/>
       <c r="D9" s="23"/>
@@ -1205,7 +1180,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="25"/>
@@ -1213,7 +1188,7 @@
       <c r="E1" s="25"/>
       <c r="F1" s="25"/>
       <c r="H1" s="26" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="I1" s="26"/>
       <c r="J1" s="26"/>
@@ -1221,25 +1196,25 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="26" t="s">
         <v>47</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="26" t="s">
-        <v>54</v>
       </c>
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
@@ -1247,7 +1222,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H3" s="26" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
@@ -1255,7 +1230,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="H4" s="26" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>

--- a/Administrativo/Costos.xlsx
+++ b/Administrativo/Costos.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>Depósito CATIE</t>
   </si>
@@ -55,18 +55,9 @@
     <t>SS461C</t>
   </si>
   <si>
-    <t>Total Deuda</t>
-  </si>
-  <si>
-    <t>Depósito TÍA</t>
-  </si>
-  <si>
     <t>SD Card</t>
   </si>
   <si>
-    <t>Plata Tía</t>
-  </si>
-  <si>
     <t>Saldo Final</t>
   </si>
   <si>
@@ -82,12 +73,6 @@
     <t>Comprado por Internet en Ebay/ Sin costo de envío</t>
   </si>
   <si>
-    <t>TOTAL</t>
-  </si>
-  <si>
-    <t>tengo</t>
-  </si>
-  <si>
     <t>Gastos Viajes</t>
   </si>
   <si>
@@ -187,9 +172,6 @@
     <t>Voltage Sensor</t>
   </si>
   <si>
-    <t>Hola</t>
-  </si>
-  <si>
     <t>RCV420</t>
   </si>
   <si>
@@ -211,7 +193,34 @@
     <t>envío sensor de radiación solar</t>
   </si>
   <si>
-    <t>intrumentos</t>
+    <t>envío case, voltage arduino</t>
+  </si>
+  <si>
+    <t>envío de case para arduino y chip voltage</t>
+  </si>
+  <si>
+    <t>sensor temp</t>
+  </si>
+  <si>
+    <t>sensor de prueba para temperatura</t>
+  </si>
+  <si>
+    <t>envío 420 adaptador</t>
+  </si>
+  <si>
+    <t>envío de adaptador 420</t>
+  </si>
+  <si>
+    <t>pago semana 17</t>
+  </si>
+  <si>
+    <t>viáticos</t>
+  </si>
+  <si>
+    <t>cables y conectores</t>
+  </si>
+  <si>
+    <t>cables, conectores y otros comprados en fausto jara</t>
   </si>
 </sst>
 </file>
@@ -291,7 +300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -369,12 +378,6 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -401,6 +404,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -408,6 +414,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -690,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,7 +719,7 @@
     <col min="4" max="4" width="58.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -718,7 +733,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -730,19 +745,13 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="8">
-        <v>200000</v>
-      </c>
-      <c r="C3" s="4">
-        <v>42123</v>
-      </c>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -753,12 +762,12 @@
         <v>42115</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="9">
         <v>3390</v>
@@ -767,10 +776,10 @@
         <v>42123</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -781,10 +790,10 @@
         <v>42128</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -795,10 +804,10 @@
         <v>42128</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -809,10 +818,10 @@
         <v>42135</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
@@ -824,24 +833,24 @@
         <v>42128</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B10" s="9">
         <v>15000</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B11" s="9">
         <v>7195</v>
@@ -850,12 +859,12 @@
         <v>42140</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B12" s="9">
         <v>3418</v>
@@ -864,13 +873,10 @@
         <v>42140</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="G12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B13" s="9">
         <v>7515</v>
@@ -878,13 +884,13 @@
       <c r="C13" s="4">
         <v>42140</v>
       </c>
-      <c r="D13" s="21" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D13" s="19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B14" s="9">
         <v>27000</v>
@@ -892,13 +898,13 @@
       <c r="C14" s="4">
         <v>42143</v>
       </c>
-      <c r="D14" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D14" s="20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B15" s="9">
         <v>64000</v>
@@ -906,53 +912,91 @@
       <c r="C15" s="4">
         <v>42150</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="9">
+        <v>3360</v>
+      </c>
+      <c r="C16" s="4">
+        <v>42147</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="9">
+        <v>10000</v>
+      </c>
+      <c r="C17" s="28">
+        <v>42160</v>
+      </c>
+      <c r="D17" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="9">
+        <v>2914</v>
+      </c>
+      <c r="C18" s="28">
+        <v>42158</v>
+      </c>
+      <c r="D18" s="26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="9">
+        <v>5000</v>
+      </c>
+      <c r="C19" s="28">
+        <v>42167</v>
+      </c>
+      <c r="D19" s="26" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+      <c r="B20" s="9">
+        <v>15000</v>
+      </c>
+      <c r="C20" s="28">
+        <v>41436</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -961,60 +1005,39 @@
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" s="7">
-        <f>B4+B5+B6+B7+B9</f>
-        <v>133741.48000000001</v>
-      </c>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="9">
-        <f>B3-B24</f>
-        <v>66258.51999999999</v>
-      </c>
+      <c r="A25" s="2"/>
+      <c r="B25" s="7"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="11">
-        <f>B2-B24-B8-B10-B11-B12-B13-B14-B15</f>
-        <v>353412.52</v>
-      </c>
+      <c r="A26" s="2"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29">
-        <v>229318</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" s="14">
-        <f>B20+B25</f>
-        <v>66258.51999999999</v>
-      </c>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="11">
+        <f>B2-SUM(B4:B20)</f>
+        <v>317138.51999999996</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="14">
-        <f>B29-B30</f>
-        <v>163059.48000000001</v>
-      </c>
+      <c r="B31" s="12"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1037,111 +1060,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+      <c r="B7" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="13"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B8" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="19" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="15"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="15"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="15"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1179,62 +1202,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="H1" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
+      <c r="A1" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="H1" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="20" t="s">
+      <c r="A2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="20" t="s">
+      <c r="B2" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H4" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H3" s="26" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H4" s="26" t="s">
-        <v>49</v>
-      </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Administrativo/Costos.xlsx
+++ b/Administrativo/Costos.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
   <si>
     <t>Depósito CATIE</t>
   </si>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t>cables, conectores y otros comprados en fausto jara</t>
+  </si>
+  <si>
+    <t>protector sensor temp</t>
+  </si>
+  <si>
+    <t>compra de protector para el sensor de temp y hum / comprado en ebay</t>
   </si>
 </sst>
 </file>
@@ -404,6 +410,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -414,15 +429,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -707,8 +713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,7 +722,7 @@
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -937,10 +943,10 @@
       <c r="B17" s="9">
         <v>10000</v>
       </c>
-      <c r="C17" s="28">
+      <c r="C17" s="24">
         <v>42160</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="22" t="s">
         <v>56</v>
       </c>
     </row>
@@ -951,10 +957,10 @@
       <c r="B18" s="9">
         <v>2914</v>
       </c>
-      <c r="C18" s="28">
+      <c r="C18" s="24">
         <v>42158</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="22" t="s">
         <v>58</v>
       </c>
     </row>
@@ -965,10 +971,10 @@
       <c r="B19" s="9">
         <v>5000</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="24">
         <v>42167</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="22" t="s">
         <v>60</v>
       </c>
     </row>
@@ -979,24 +985,32 @@
       <c r="B20" s="9">
         <v>15000</v>
       </c>
-      <c r="C20" s="28">
+      <c r="C20" s="24">
         <v>41436</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="22" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
-      <c r="B21" s="27"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
+      <c r="A21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="9">
+        <v>28932</v>
+      </c>
+      <c r="C21" s="24">
+        <v>42171</v>
+      </c>
+      <c r="D21" s="22" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
@@ -1027,8 +1041,8 @@
         <v>10</v>
       </c>
       <c r="B27" s="11">
-        <f>B2-SUM(B4:B20)</f>
-        <v>317138.51999999996</v>
+        <f>B2-SUM(B4:B21)</f>
+        <v>288206.52</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1060,12 +1074,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
       <c r="E1" s="14" t="s">
         <v>23</v>
       </c>
@@ -1074,11 +1088,11 @@
       <c r="A2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
       <c r="E2" s="17" t="s">
         <v>24</v>
       </c>
@@ -1087,11 +1101,11 @@
       <c r="A3" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
       <c r="E3" s="13" t="s">
         <v>24</v>
       </c>
@@ -1100,11 +1114,11 @@
       <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="13" t="s">
         <v>24</v>
       </c>
@@ -1113,11 +1127,11 @@
       <c r="A5" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="13" t="s">
         <v>24</v>
       </c>
@@ -1126,44 +1140,44 @@
       <c r="A6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="13"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="13"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="13"/>
     </row>
   </sheetData>
@@ -1202,20 +1216,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="H1" s="25" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="H1" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -1236,28 +1250,28 @@
       <c r="F2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H4" s="25" t="s">
+      <c r="H4" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Administrativo/Costos.xlsx
+++ b/Administrativo/Costos.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="98">
   <si>
     <t>Depósito CATIE</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Monto en Colones</t>
   </si>
   <si>
-    <t>SHT75</t>
-  </si>
-  <si>
     <t>SS461C</t>
   </si>
   <si>
@@ -64,21 +61,9 @@
     <t>Incluído el envío/ Comprado en CRCibernética</t>
   </si>
   <si>
-    <t>Comprado en Compubetel</t>
-  </si>
-  <si>
-    <t>Comprado por Internet en Amazon/ Sin costo de envío</t>
-  </si>
-  <si>
     <t>Comprado por Internet en Ebay/ Sin costo de envío</t>
   </si>
   <si>
-    <t>Gastos Viajes</t>
-  </si>
-  <si>
-    <t>por viajes a turrialba entre otros</t>
-  </si>
-  <si>
     <t>Cronograma de actividades</t>
   </si>
   <si>
@@ -202,31 +187,139 @@
     <t>sensor temp</t>
   </si>
   <si>
-    <t>sensor de prueba para temperatura</t>
-  </si>
-  <si>
     <t>envío 420 adaptador</t>
   </si>
   <si>
     <t>envío de adaptador 420</t>
   </si>
   <si>
-    <t>pago semana 17</t>
-  </si>
-  <si>
     <t>viáticos</t>
   </si>
   <si>
-    <t>cables y conectores</t>
-  </si>
-  <si>
-    <t>cables, conectores y otros comprados en fausto jara</t>
-  </si>
-  <si>
     <t>protector sensor temp</t>
   </si>
   <si>
-    <t>compra de protector para el sensor de temp y hum / comprado en ebay</t>
+    <t>ADC Ardafruit</t>
+  </si>
+  <si>
+    <t>compra de ADC externo para mejorar calidad de mediciones/ comprado en CRCibernética con envío incluido</t>
+  </si>
+  <si>
+    <t>Power Suply</t>
+  </si>
+  <si>
+    <t>fuentes para alimentar circuito y sensores, comprado en Ebay/ sin costo de envío</t>
+  </si>
+  <si>
+    <t>Power Suply step</t>
+  </si>
+  <si>
+    <t>fuentes para alimentar circuito y sensores, comprado en CRCibernética/ con costo de envío</t>
+  </si>
+  <si>
+    <t>Adaptador</t>
+  </si>
+  <si>
+    <t>adaptador 120 V AC - 24 V DC/ comprado en Teltron San José</t>
+  </si>
+  <si>
+    <t>Cautin</t>
+  </si>
+  <si>
+    <t>Cautín y desoldador para circuito PCB/ comprado en Electrónica Hidal San José</t>
+  </si>
+  <si>
+    <t>Pasajes San José</t>
+  </si>
+  <si>
+    <t>gastos para realizar compras en San José</t>
+  </si>
+  <si>
+    <t>Envío pretector sensor temp</t>
+  </si>
+  <si>
+    <t>envío de protector de sensor de temperatura</t>
+  </si>
+  <si>
+    <t>SHT71</t>
+  </si>
+  <si>
+    <t>repuesto para sensor SHT71 comprado en Ebay / sin costo de envío</t>
+  </si>
+  <si>
+    <t>Conectores</t>
+  </si>
+  <si>
+    <t>conectores y pines del circuito comprado en crcibernetica/ con costo de envío</t>
+  </si>
+  <si>
+    <t>RTC</t>
+  </si>
+  <si>
+    <t>RTC para tiempo real en arduino, comprado en CRCibernética/incluye costo de envío</t>
+  </si>
+  <si>
+    <t>Varios</t>
+  </si>
+  <si>
+    <t>Compra de Silicón, cinta métrica, extensión y tape comprado en Walmart</t>
+  </si>
+  <si>
+    <t>Financiamiento Otorgado por el CATIE para el desarrollo de la estación</t>
+  </si>
+  <si>
+    <t>factura</t>
+  </si>
+  <si>
+    <t>Caja Plexo/Soldadura</t>
+  </si>
+  <si>
+    <t>caja para dataloger plexo y soldadura para pcb/comprado en Almacé Mauro San José</t>
+  </si>
+  <si>
+    <t>tornillos para la caja, conectores, adaptador DC, tabla para caja plexo, cable HDMI para los circuitos entre otras cosas, comprado en Electrónica Fausto Jara en Cartago</t>
+  </si>
+  <si>
+    <t>factura digital</t>
+  </si>
+  <si>
+    <t>SD Card para Arduino Yún/Comprado en Compubetel</t>
+  </si>
+  <si>
+    <t>varios</t>
+  </si>
+  <si>
+    <t>cables telefónico para alambrado, termocontraíble, cautín y soldadura comprados en fausto jara</t>
+  </si>
+  <si>
+    <t>Sensor de temperatura SHT71 comprado por Internet en Amazon/ Sin costo de envío</t>
+  </si>
+  <si>
+    <t>sensor de precipitación comprado por Internet en Amazon/ Sin costo de envío</t>
+  </si>
+  <si>
+    <t>Turrialba</t>
+  </si>
+  <si>
+    <t>por viajes a turrialba para definir detalles</t>
+  </si>
+  <si>
+    <t>sensores de voltaje para lectura en el arduino comprado en Ebay/Sin costo de envío</t>
+  </si>
+  <si>
+    <t>Kenneth</t>
+  </si>
+  <si>
+    <t>sensor de prueba para temperatura comprado en CRCibernética/incluído costo de envío</t>
+  </si>
+  <si>
+    <t>Viáticos</t>
+  </si>
+  <si>
+    <t>compra de protector para el sensor de temp y humedad comprado en ebay/Sin costo de envío</t>
+  </si>
+  <si>
+    <t>hoja de segueta y lija comprado en Ferretería los Ángeles</t>
   </si>
 </sst>
 </file>
@@ -291,7 +384,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -307,6 +400,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -369,9 +480,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -413,12 +521,21 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -711,21 +828,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63" customWidth="1"/>
+    <col min="4" max="4" width="149" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -739,99 +857,114 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11">
+      <c r="B2" s="10">
         <v>820000</v>
       </c>
       <c r="C2" s="4">
         <v>42132</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="8"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="4"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="8">
         <v>58642</v>
       </c>
       <c r="C4" s="4">
         <v>42115</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="9">
+        <v>8</v>
+      </c>
+      <c r="B5" s="8">
         <v>3390</v>
       </c>
       <c r="C5" s="4">
         <v>42123</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="E5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="10">
+        <v>71</v>
+      </c>
+      <c r="B6" s="9">
         <v>27936.02</v>
       </c>
       <c r="C6" s="4">
         <v>42128</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>38619</v>
       </c>
       <c r="C7" s="4">
         <v>42128</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>208718</v>
       </c>
       <c r="C8" s="4">
         <v>42135</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="E8" s="26"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="8">
         <v>5154.46</v>
       </c>
       <c r="C9" s="4">
@@ -839,219 +972,459 @@
         <v>42128</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="E9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="9">
+        <v>90</v>
+      </c>
+      <c r="B10" s="8">
         <v>15000</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="E10" s="27"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="9">
+        <v>40</v>
+      </c>
+      <c r="B11" s="8">
         <v>7195</v>
       </c>
       <c r="C11" s="4">
         <v>42140</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="E11" s="26"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="9">
+        <v>42</v>
+      </c>
+      <c r="B12" s="8">
         <v>3418</v>
       </c>
       <c r="C12" s="4">
         <v>42140</v>
       </c>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="26"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="9">
+        <v>43</v>
+      </c>
+      <c r="B13" s="8">
         <v>7515</v>
       </c>
       <c r="C13" s="4">
         <v>42140</v>
       </c>
-      <c r="D13" s="19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="26"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="9">
+        <v>45</v>
+      </c>
+      <c r="B14" s="8">
         <v>27000</v>
       </c>
       <c r="C14" s="4">
         <v>42143</v>
       </c>
-      <c r="D14" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="9">
-        <v>64000</v>
+        <v>48</v>
+      </c>
+      <c r="B15" s="8">
+        <v>63331</v>
       </c>
       <c r="C15" s="4">
         <v>42150</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="9">
+        <v>86</v>
+      </c>
+      <c r="B16" s="8">
         <v>3360</v>
       </c>
       <c r="C16" s="4">
         <v>42147</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="8">
+        <v>10000</v>
+      </c>
+      <c r="C17" s="22">
+        <v>42160</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="8">
+        <v>2914</v>
+      </c>
+      <c r="C18" s="22">
+        <v>42158</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="8">
+        <v>5000</v>
+      </c>
+      <c r="C19" s="22">
+        <v>42167</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E19" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="8">
+        <v>15000</v>
+      </c>
+      <c r="C20" s="22">
+        <v>41436</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="27"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="8">
+        <v>28932</v>
+      </c>
+      <c r="C21" s="22">
+        <v>42171</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="26"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="8">
+        <v>13009</v>
+      </c>
+      <c r="C22" s="22">
+        <v>42180</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="8">
+        <v>4950</v>
+      </c>
+      <c r="C23" s="4">
+        <v>42177</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="8">
+        <v>17401</v>
+      </c>
+      <c r="C24" s="4">
+        <v>42186</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="8">
+        <v>20571.45</v>
+      </c>
+      <c r="C25" s="4">
+        <v>42187</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="8">
+        <v>5999</v>
+      </c>
+      <c r="C26" s="4">
+        <v>42187</v>
+      </c>
+      <c r="D26" s="23" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="9">
+      <c r="E26" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B27" s="8">
+        <v>8373.2999999999993</v>
+      </c>
+      <c r="C27" s="4">
+        <v>42187</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="8">
         <v>10000</v>
       </c>
-      <c r="C17" s="24">
-        <v>42160</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="9">
-        <v>2914</v>
-      </c>
-      <c r="C18" s="24">
-        <v>42158</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="9">
-        <v>5000</v>
-      </c>
-      <c r="C19" s="24">
-        <v>42167</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="9">
-        <v>15000</v>
-      </c>
-      <c r="C20" s="24">
-        <v>41436</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="9">
-        <v>28932</v>
-      </c>
-      <c r="C21" s="24">
-        <v>42171</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="11">
-        <f>B2-SUM(B4:B21)</f>
-        <v>288206.52</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="12"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="12"/>
+      <c r="C28" s="4">
+        <v>42187</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="28"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="8">
+        <v>9750</v>
+      </c>
+      <c r="C29" s="4">
+        <v>42187</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="8">
+        <v>31386</v>
+      </c>
+      <c r="C30" s="4">
+        <v>42188</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="8">
+        <v>10382</v>
+      </c>
+      <c r="C31" s="4">
+        <v>42188</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B32" s="8">
+        <v>7632.56</v>
+      </c>
+      <c r="C32" s="4">
+        <v>42188</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="8">
+        <v>7951</v>
+      </c>
+      <c r="C33" s="4">
+        <v>42191</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="8">
+        <v>5170</v>
+      </c>
+      <c r="C34" s="4">
+        <v>42192</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="8">
+        <v>1100</v>
+      </c>
+      <c r="C35" s="4">
+        <v>42189</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="10">
+        <f>B2-SUM(B4:B35)</f>
+        <v>135200.20999999996</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="11"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1074,111 +1447,111 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="12"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="B7" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="12"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B8" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="13"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="13"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="13"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1202,7 +1575,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:K4"/>
+      <selection activeCell="H1" sqref="H1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,62 +1589,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="H1" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
+      <c r="A1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="H1" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D2" s="18" t="s">
+      <c r="B2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H3" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H4" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H3" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H4" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1284,4 +1657,209 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DDCB7567C57F8040BE7D2C8C954FE079" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c201f0ed5a21548aa5b384841cd7c264">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="409ad68d-d29f-430f-a549-5a7ade0042f6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fc83237e4d928d2f469e6c5948e5a4b" ns2:_="">
+    <xsd:import namespace="409ad68d-d29f-430f-a549-5a7ade0042f6"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns2:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="409ad68d-d29f-430f-a549-5a7ade0042f6" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Compartido con" ma:description="" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Detalles de uso compartido" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08347B21-6382-4DE6-BE64-5BC673074369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{100E311A-3E06-46C3-BFCF-CFA9E18FD260}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="409ad68d-d29f-430f-a549-5a7ade0042f6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7906EAE-D6DC-4D55-85F7-AF5E9E05AF5D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="409ad68d-d29f-430f-a549-5a7ade0042f6"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Administrativo/Costos.xlsx
+++ b/Administrativo/Costos.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="106">
   <si>
     <t>Depósito CATIE</t>
   </si>
@@ -320,6 +320,30 @@
   </si>
   <si>
     <t>hoja de segueta y lija comprado en Ferretería los Ángeles</t>
+  </si>
+  <si>
+    <t>Viaje a Turrialba</t>
+  </si>
+  <si>
+    <t>pases y almuerzo a Turrialba para visita de torre</t>
+  </si>
+  <si>
+    <t>Batería RTC</t>
+  </si>
+  <si>
+    <t>Adaptador DC</t>
+  </si>
+  <si>
+    <t>repuesto para adaptador DC 12V comprado en fausto jara</t>
+  </si>
+  <si>
+    <t>compra de batería para módulo RTC comprado en fausto jara</t>
+  </si>
+  <si>
+    <t>Spray y Lija</t>
+  </si>
+  <si>
+    <t>Spray y lija para detalles en sensor de precipitación</t>
   </si>
 </sst>
 </file>
@@ -460,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -536,6 +560,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -828,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1270,82 +1297,82 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="B28" s="8">
-        <v>10000</v>
+        <v>2349.9899999999998</v>
       </c>
       <c r="C28" s="4">
-        <v>42187</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="28"/>
+        <v>42180</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E28" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B29" s="8">
-        <v>9750</v>
+        <v>5000</v>
       </c>
       <c r="C29" s="4">
         <v>42187</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" t="s">
-        <v>93</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="E29" s="28"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B30" s="8">
-        <v>31386</v>
+        <v>9750</v>
       </c>
       <c r="C30" s="4">
-        <v>42188</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>72</v>
+        <v>42187</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B31" s="8">
-        <v>10382</v>
+        <v>31386</v>
       </c>
       <c r="C31" s="4">
         <v>42188</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B32" s="8">
-        <v>7632.56</v>
+        <v>10382</v>
       </c>
       <c r="C32" s="4">
         <v>42188</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="E32" t="s">
         <v>80</v>
@@ -1353,33 +1380,33 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B33" s="8">
-        <v>7951</v>
+        <v>7632.56</v>
       </c>
       <c r="C33" s="4">
-        <v>42191</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>76</v>
+        <v>42188</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B34" s="8">
-        <v>5170</v>
+        <v>7951</v>
       </c>
       <c r="C34" s="4">
-        <v>42192</v>
+        <v>42191</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1387,44 +1414,106 @@
         <v>77</v>
       </c>
       <c r="B35" s="8">
-        <v>1100</v>
+        <v>5170</v>
       </c>
       <c r="C35" s="4">
-        <v>42189</v>
+        <v>42192</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="E35" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
+      <c r="A36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="8">
+        <v>1100</v>
+      </c>
+      <c r="C36" s="4">
+        <v>42189</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="E36" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="8">
+        <v>12500</v>
+      </c>
+      <c r="C37" s="4">
+        <v>42193</v>
+      </c>
+      <c r="D37" s="29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="8">
+        <v>1620</v>
+      </c>
+      <c r="C38" s="4">
+        <v>42193</v>
+      </c>
+      <c r="D38" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" s="8">
+        <v>6850</v>
+      </c>
+      <c r="C39" s="4">
+        <v>42194</v>
+      </c>
+      <c r="D39" s="29" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B37" s="10">
-        <f>B2-SUM(B4:B35)</f>
-        <v>135200.20999999996</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="11"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="11"/>
+      <c r="B41" s="10">
+        <f>B2-SUM(B4:B39)</f>
+        <v>116880.21999999997</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="11"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1447,12 +1536,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
       <c r="E1" s="13" t="s">
         <v>18</v>
       </c>
@@ -1461,11 +1550,11 @@
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="16" t="s">
         <v>19</v>
       </c>
@@ -1474,11 +1563,11 @@
       <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
       <c r="E3" s="12" t="s">
         <v>19</v>
       </c>
@@ -1487,11 +1576,11 @@
       <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="12" t="s">
         <v>19</v>
       </c>
@@ -1500,11 +1589,11 @@
       <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
       <c r="E5" s="12" t="s">
         <v>19</v>
       </c>
@@ -1513,44 +1602,44 @@
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
       <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
       <c r="E9" s="12"/>
     </row>
   </sheetData>
@@ -1589,20 +1678,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="H1" s="32" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="H1" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -1623,28 +1712,28 @@
       <c r="F2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1660,15 +1749,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DDCB7567C57F8040BE7D2C8C954FE079" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c201f0ed5a21548aa5b384841cd7c264">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="409ad68d-d29f-430f-a549-5a7ade0042f6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fc83237e4d928d2f469e6c5948e5a4b" ns2:_="">
     <xsd:import namespace="409ad68d-d29f-430f-a549-5a7ade0042f6"/>
@@ -1816,6 +1896,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1823,14 +1912,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08347B21-6382-4DE6-BE64-5BC673074369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{100E311A-3E06-46C3-BFCF-CFA9E18FD260}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1844,6 +1925,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08347B21-6382-4DE6-BE64-5BC673074369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Administrativo/Costos.xlsx
+++ b/Administrativo/Costos.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="116">
   <si>
     <t>Depósito CATIE</t>
   </si>
@@ -344,6 +344,36 @@
   </si>
   <si>
     <t>Spray y lija para detalles en sensor de precipitación</t>
+  </si>
+  <si>
+    <t>Gazas metalicas</t>
+  </si>
+  <si>
+    <t>gazas metálicas para cables al tubo comprado en RM Industrial Solin S.A</t>
+  </si>
+  <si>
+    <t>conectores macho/hembra comprado en CRCibernética / con costo de envío</t>
+  </si>
+  <si>
+    <t>facturado</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gastos en el viaje al CATIE </t>
+  </si>
+  <si>
+    <t>Alimento</t>
+  </si>
+  <si>
+    <t>alimento casa de Josue</t>
+  </si>
+  <si>
+    <t>Stickers y Logo</t>
+  </si>
+  <si>
+    <t>Logo y stickers para estación</t>
   </si>
 </sst>
 </file>
@@ -484,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -560,6 +590,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -855,15 +888,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="149" bestFit="1" customWidth="1"/>
@@ -1489,31 +1522,117 @@
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
+      <c r="A40" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="8">
+        <v>3238.58</v>
+      </c>
+      <c r="C40" s="4">
+        <v>42197</v>
+      </c>
+      <c r="D40" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="8">
+        <v>5397</v>
+      </c>
+      <c r="C41" s="4">
+        <v>42198</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E41" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="8">
+        <v>3500</v>
+      </c>
+      <c r="C42" s="4">
+        <v>42198</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B43" s="8">
+        <v>4000</v>
+      </c>
+      <c r="C43" s="4">
+        <f>C42</f>
+        <v>42198</v>
+      </c>
+      <c r="D43" s="30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="8">
+        <v>14500</v>
+      </c>
+      <c r="C44" s="4">
+        <v>42198</v>
+      </c>
+      <c r="D44" s="30" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="30"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B41" s="10">
-        <f>B2-SUM(B4:B39)</f>
-        <v>116880.21999999997</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="11"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="11"/>
+      <c r="B47" s="10">
+        <f>B2-SUM(B4:B44)</f>
+        <v>86244.640000000014</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="11"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="11"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1536,12 +1655,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
       <c r="E1" s="13" t="s">
         <v>18</v>
       </c>
@@ -1550,11 +1669,11 @@
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="16" t="s">
         <v>19</v>
       </c>
@@ -1563,11 +1682,11 @@
       <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="12" t="s">
         <v>19</v>
       </c>
@@ -1576,11 +1695,11 @@
       <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="12" t="s">
         <v>19</v>
       </c>
@@ -1589,11 +1708,11 @@
       <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="12" t="s">
         <v>19</v>
       </c>
@@ -1602,44 +1721,44 @@
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
       <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
       <c r="E9" s="12"/>
     </row>
   </sheetData>
@@ -1678,20 +1797,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="H1" s="33" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="H1" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -1712,28 +1831,28 @@
       <c r="F2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H3" s="33" t="s">
+      <c r="H3" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1749,6 +1868,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DDCB7567C57F8040BE7D2C8C954FE079" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c201f0ed5a21548aa5b384841cd7c264">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="409ad68d-d29f-430f-a549-5a7ade0042f6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fc83237e4d928d2f469e6c5948e5a4b" ns2:_="">
     <xsd:import namespace="409ad68d-d29f-430f-a549-5a7ade0042f6"/>
@@ -1896,15 +2024,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1912,6 +2031,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08347B21-6382-4DE6-BE64-5BC673074369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{100E311A-3E06-46C3-BFCF-CFA9E18FD260}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1925,14 +2052,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08347B21-6382-4DE6-BE64-5BC673074369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Administrativo/Costos.xlsx
+++ b/Administrativo/Costos.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="126">
   <si>
     <t>Depósito CATIE</t>
   </si>
@@ -374,13 +374,43 @@
   </si>
   <si>
     <t>Logo y stickers para estación</t>
+  </si>
+  <si>
+    <t>Envío SHT</t>
+  </si>
+  <si>
+    <t>Gasolina</t>
+  </si>
+  <si>
+    <t>WW</t>
+  </si>
+  <si>
+    <t>Walmart</t>
+  </si>
+  <si>
+    <t>me debe</t>
+  </si>
+  <si>
+    <t>Michi</t>
+  </si>
+  <si>
+    <t>Juanka</t>
+  </si>
+  <si>
+    <t>Allan</t>
+  </si>
+  <si>
+    <t>Juank</t>
+  </si>
+  <si>
+    <t>Chino</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -433,6 +463,27 @@
     <font>
       <sz val="11"/>
       <color rgb="FF002060"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -514,7 +565,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -599,6 +650,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -608,6 +662,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -888,10 +950,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E52"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1525,7 +1587,7 @@
       <c r="A40" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="8">
+      <c r="B40" s="10">
         <v>3238.58</v>
       </c>
       <c r="C40" s="4">
@@ -1542,7 +1604,7 @@
       <c r="A41" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="8">
+      <c r="B41" s="10">
         <v>5397</v>
       </c>
       <c r="C41" s="4">
@@ -1589,7 +1651,7 @@
         <v>114</v>
       </c>
       <c r="B44" s="8">
-        <v>14500</v>
+        <v>7500</v>
       </c>
       <c r="C44" s="4">
         <v>42198</v>
@@ -1599,40 +1661,150 @@
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="8"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="30"/>
+      <c r="A45" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="37">
+        <v>4596</v>
+      </c>
+      <c r="C45" s="4">
+        <v>42199</v>
+      </c>
+      <c r="D45" s="31"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="2"/>
-      <c r="B46" s="8"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+      <c r="A46" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="8">
+        <v>15000</v>
+      </c>
+      <c r="C46" s="4">
+        <v>42199</v>
+      </c>
+      <c r="D46" s="31"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="8">
+        <v>45000</v>
+      </c>
+      <c r="C47" s="4">
+        <v>42199</v>
+      </c>
+      <c r="D47" s="30"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B48" s="8">
+        <v>7966</v>
+      </c>
+      <c r="C48" s="4">
+        <v>42199</v>
+      </c>
+      <c r="D48" s="31"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="38">
+        <v>10000</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="31"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="38">
+        <v>3800</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="8">
+        <v>5500</v>
+      </c>
+      <c r="C51" s="4">
+        <v>42200</v>
+      </c>
+      <c r="D51" s="31"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="31"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="31"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B47" s="10">
-        <f>B2-SUM(B4:B44)</f>
-        <v>86244.640000000014</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="11"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="11"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="11"/>
+      <c r="B53" s="10">
+        <f>B2-SUM(B4:B48)+B49+B50-B51-B62-B63</f>
+        <v>16282.640000000014</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="11"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C56" s="36">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="11"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="11"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="11">
+        <f>B40+B41+B45+C56</f>
+        <v>17731.580000000002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="39">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" s="39">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <f>B62+B63</f>
+        <v>12700</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1655,12 +1827,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
       <c r="E1" s="13" t="s">
         <v>18</v>
       </c>
@@ -1669,11 +1841,11 @@
       <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="16" t="s">
         <v>19</v>
       </c>
@@ -1682,11 +1854,11 @@
       <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="12" t="s">
         <v>19</v>
       </c>
@@ -1695,11 +1867,11 @@
       <c r="A4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="12" t="s">
         <v>19</v>
       </c>
@@ -1708,11 +1880,11 @@
       <c r="A5" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="12" t="s">
         <v>19</v>
       </c>
@@ -1721,44 +1893,44 @@
       <c r="A6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
       <c r="E6" s="12"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
       <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
       <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
       <c r="E9" s="12"/>
     </row>
   </sheetData>
@@ -1797,20 +1969,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="H1" s="34" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="H1" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -1831,28 +2003,28 @@
       <c r="F2" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1868,15 +2040,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100DDCB7567C57F8040BE7D2C8C954FE079" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="c201f0ed5a21548aa5b384841cd7c264">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="409ad68d-d29f-430f-a549-5a7ade0042f6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4fc83237e4d928d2f469e6c5948e5a4b" ns2:_="">
     <xsd:import namespace="409ad68d-d29f-430f-a549-5a7ade0042f6"/>
@@ -2024,6 +2187,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -2031,14 +2203,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08347B21-6382-4DE6-BE64-5BC673074369}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{100E311A-3E06-46C3-BFCF-CFA9E18FD260}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2052,6 +2216,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{08347B21-6382-4DE6-BE64-5BC673074369}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
